--- a/账本.xlsx
+++ b/账本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -444,7 +447,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,11 +461,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="3">
+        <v>131</v>
+      </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>42143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>222</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
